--- a/2021 Международная научно-техническая конференция «Перспективные информационные технологии»/Графики.xlsx
+++ b/2021 Международная научно-техническая конференция «Перспективные информационные технологии»/Графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my docs\stud\the fucking NIRS\2021 Международная научно-техническая конференция «Перспективные информационные технологии»\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A466301-BD4A-4154-8F61-3D325C11BA88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447AC7D-7935-42BB-AAD5-AA57DB434A67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{26100BE0-31D0-43F3-9B74-335222C183DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="582">
   <si>
     <t>skimage.feature.register_translation</t>
   </si>
@@ -1736,13 +1736,84 @@
   </si>
   <si>
     <t>Total Time: 24.737265586853027</t>
+  </si>
+  <si>
+    <t>ВКФ</t>
+  </si>
+  <si>
+    <t>Наименование метода</t>
+  </si>
+  <si>
+    <t>Среднее  СКО согласования</t>
+  </si>
+  <si>
+    <t>деск. SIFT</t>
+  </si>
+  <si>
+    <t>деск. SURF</t>
+  </si>
+  <si>
+    <t>деск. BRIEF</t>
+  </si>
+  <si>
+    <t>деск. ORB</t>
+  </si>
+  <si>
+    <t>пирам. сдвиг</t>
+  </si>
+  <si>
+    <t>пирам. сдвиг и повор.</t>
+  </si>
+  <si>
+    <t>пирам. сдвиг-масшт.-пов.</t>
+  </si>
+  <si>
+    <t>пирам. афф. преобр.</t>
+  </si>
+  <si>
+    <t>пирам. билин.</t>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-мера</t>
+    </r>
+  </si>
+  <si>
+    <t>опт. поток</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1758,6 +1829,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1767,7 +1861,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2040,11 +2134,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2070,6 +2179,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2078,8 +2197,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8CD533"/>
       <color rgb="FFE55F23"/>
-      <color rgb="FF8CD533"/>
       <color rgb="FF181DF0"/>
       <color rgb="FFED83D1"/>
     </mruColors>
@@ -3204,6 +3323,472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>СКО комплексирования</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Все!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее  СКО согласования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8CD533"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4614-482E-B2A6-0AC68073AE3D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4614-482E-B2A6-0AC68073AE3D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Все!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Все!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>57.9940448979591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.297800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.567926530612198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.5499530612244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.545428571428502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.253344897959103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.290855102040801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.3216265306122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.0557204081632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.493240816326498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.302767346938701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.860732653061199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4614-482E-B2A6-0AC68073AE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="856078143"/>
+        <c:axId val="856078559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="856078143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856078559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="856078559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856078143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7644,6 +8229,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8996,6 +9621,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -13192,6 +14320,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0007679A-606C-439F-B1ED-9001C23EE036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -15008,15 +16177,166 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8CF455-6DCF-485C-9970-08823F4DBCCB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="26">
+        <v>57.9940448979591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="26">
+        <v>56.297800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="26">
+        <v>59.567926530612198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="26">
+        <v>60.5499530612244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="26">
+        <v>39.545428571428502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="26">
+        <v>33.253344897959103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="26">
+        <v>30.290855102040801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" s="26">
+        <v>29.3216265306122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="26">
+        <v>29.0557204081632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="26">
+        <v>48.493240816326498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C12" s="26">
+        <v>48.302767346938701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C13" s="26">
+        <v>49.860732653061199</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
